--- a/Project Outputs for VYLT_IOT_CCM/BOM/Bill of Materials-VYLT_IOT_CCM.xlsx
+++ b/Project Outputs for VYLT_IOT_CCM/BOM/Bill of Materials-VYLT_IOT_CCM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vylt-my.sharepoint.com/personal/satyam_vylt_in/Documents/Altium_Designs/VYLT_IOT_CCM/Project Outputs for VYLT_IOT_CCM/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE1D9C0-2A12-468B-9B6F-2B2AB6BAE3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7CA7130-F934-4AFD-9D06-625E47A074A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{39E28ABF-D616-4AB5-B687-D9C3128A8F2D}"/>
+    <workbookView xWindow="4080" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{EAC70812-A8CD-4D87-9844-25EDCC24CC9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-VYLT_IOT_CCM" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="184">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +71,27 @@
     <t>Supplier Subtotal 1</t>
   </si>
   <si>
+    <t>ERP_104-3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SS54</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Sharvi</t>
+  </si>
+  <si>
+    <t>ST2103SD0940</t>
+  </si>
+  <si>
     <t>MLCC_0805</t>
   </si>
   <si>
@@ -83,15 +104,9 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>Generic</t>
-  </si>
-  <si>
     <t>CC0805KKX7R9BB105</t>
   </si>
   <si>
-    <t>Sharvi</t>
-  </si>
-  <si>
     <t>ST2009SD0713</t>
   </si>
   <si>
@@ -176,21 +191,6 @@
     <t>ST2009SD0089</t>
   </si>
   <si>
-    <t>ERP_104-3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>SS54</t>
-  </si>
-  <si>
-    <t>ST2103SD0940</t>
-  </si>
-  <si>
     <t>LED_1206</t>
   </si>
   <si>
@@ -398,7 +398,16 @@
     <t>ESP32-S3-WROOM</t>
   </si>
   <si>
-    <t>Espressif Systems</t>
+    <t>Espressif</t>
+  </si>
+  <si>
+    <t>ESP32-S3-WROOM-1</t>
+  </si>
+  <si>
+    <t>Robu</t>
+  </si>
+  <si>
+    <t>R186283</t>
   </si>
   <si>
     <t>ERP_105-1</t>
@@ -410,6 +419,9 @@
     <t>Q1, Q2</t>
   </si>
   <si>
+    <t>ST2009SD0534</t>
+  </si>
+  <si>
     <t>ERP_101-1</t>
   </si>
   <si>
@@ -422,7 +434,7 @@
     <t>10k</t>
   </si>
   <si>
-    <t>560112116003, [NoValue]</t>
+    <t>ST2009SD0393</t>
   </si>
   <si>
     <t>R2, R32, R34</t>
@@ -431,12 +443,18 @@
     <t>3k3</t>
   </si>
   <si>
+    <t>ST2009SD0408</t>
+  </si>
+  <si>
     <t>R3</t>
   </si>
   <si>
     <t>10R</t>
   </si>
   <si>
+    <t>ST2009SD0391</t>
+  </si>
+  <si>
     <t>RES_0201</t>
   </si>
   <si>
@@ -446,49 +464,67 @@
     <t>0R</t>
   </si>
   <si>
-    <t>R6, R9, R15, R16, R17, R18, R19, R53, R56</t>
+    <t>R189133</t>
+  </si>
+  <si>
+    <t>R6, R9, R15, R16, R17, R18, R19, R51, R53, R56</t>
   </si>
   <si>
     <t>4k7</t>
   </si>
   <si>
+    <t>ST2009SD0415</t>
+  </si>
+  <si>
     <t>R7, R8, R11, R12, R14, R20, R21, R23, R24, R25, R26, R54, R55</t>
   </si>
   <si>
+    <t>ST2009SD0609</t>
+  </si>
+  <si>
     <t>R28</t>
   </si>
   <si>
     <t>100k</t>
   </si>
   <si>
+    <t>ST2009SD0392</t>
+  </si>
+  <si>
     <t>R30</t>
   </si>
   <si>
     <t>120k</t>
   </si>
   <si>
+    <t>ST2009SD0395</t>
+  </si>
+  <si>
     <t>R31, R33, R49</t>
   </si>
   <si>
     <t>470R</t>
   </si>
   <si>
+    <t>ST2009SD0417</t>
+  </si>
+  <si>
     <t>R35</t>
   </si>
   <si>
     <t>20k</t>
   </si>
   <si>
+    <t>ST2103SD1134</t>
+  </si>
+  <si>
     <t>R36</t>
   </si>
   <si>
     <t>680R</t>
   </si>
   <si>
-    <t>R51</t>
-  </si>
-  <si>
-    <t>1k</t>
+    <t>ST2009SD0426</t>
   </si>
   <si>
     <t>Generic6X6</t>
@@ -500,7 +536,7 @@
     <t>SW1, SW2, SW3, SW6, SW7</t>
   </si>
   <si>
-    <t>C&amp;K</t>
+    <t>ST2103SD1730</t>
   </si>
   <si>
     <t>XL4015</t>
@@ -512,10 +548,7 @@
     <t>U1</t>
   </si>
   <si>
-    <t>XLSemi</t>
-  </si>
-  <si>
-    <t>XL4015E1</t>
+    <t>ST2103SD1331</t>
   </si>
   <si>
     <t>ERP_123-1</t>
@@ -527,28 +560,7 @@
     <t>U2, U5, U7, U10</t>
   </si>
   <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>TLV1117LV33DCYR, TLV1117-50IDCYR</t>
-  </si>
-  <si>
-    <t>W25Q128JW</t>
-  </si>
-  <si>
-    <t>FLASH - NOR Memory IC SPI - Quad I/O 133 MHz 8-SOIC</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>Winbond</t>
-  </si>
-  <si>
-    <t>W25Q128JWSIQ</t>
-  </si>
-  <si>
-    <t>153-W25Q128JWSIQ</t>
+    <t>ST2009SD0350</t>
   </si>
   <si>
     <t>TXS0108EPW</t>
@@ -560,10 +572,7 @@
     <t>U4, U6</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>TXS0108EPWR</t>
+    <t>ST2103SD1898</t>
   </si>
   <si>
     <t>LM39302</t>
@@ -573,6 +582,15 @@
   </si>
   <si>
     <t>U8</t>
+  </si>
+  <si>
+    <t>HTC Korea</t>
+  </si>
+  <si>
+    <t>LM39302R-ADJ</t>
+  </si>
+  <si>
+    <t>ST2103SD1311</t>
   </si>
 </sst>
 </file>
@@ -968,15 +986,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA30742E-3F89-49FE-9C89-D1927085AFB7}">
-  <dimension ref="A1:J44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6F8C88-535B-4B04-8F30-67CB4E673743}">
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
@@ -1030,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -1039,53 +1057,53 @@
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" s="1">
-        <v>29.9</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="J3" s="1">
-        <v>30.63</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -1094,7 +1112,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1106,205 +1124,205 @@
         <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="1">
-        <v>46.4</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J5" s="1">
-        <v>21.8</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" s="1">
-        <v>54.6</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1">
-        <v>34.9</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8" s="1">
-        <v>64.56</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1">
-        <v>27.8</v>
+        <v>64.56</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J10" s="1">
-        <v>10.09</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1327,10 +1345,10 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>54</v>
@@ -1359,10 +1377,10 @@
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>57</v>
@@ -1385,16 +1403,16 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>61</v>
@@ -1417,16 +1435,16 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>65</v>
@@ -1453,10 +1471,10 @@
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>68</v>
@@ -1479,16 +1497,16 @@
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>72</v>
@@ -1577,10 +1595,10 @@
         <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>90</v>
@@ -1603,16 +1621,16 @@
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>94</v>
@@ -1671,10 +1689,10 @@
         <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>104</v>
@@ -1703,10 +1721,10 @@
         <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>108</v>
@@ -1736,7 +1754,7 @@
         <v>113</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>114</v>
@@ -1764,470 +1782,554 @@
       <c r="F25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="G25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" s="1">
+        <v>289</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="1">
+        <v>7.36</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D27" s="1">
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" s="1">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D31" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="1">
+        <v>19.2</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D32" s="1">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33" s="1">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="1">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J35" s="1">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J36" s="1">
+        <v>27.2</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" s="1">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" s="1">
+        <v>52.1</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D39" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="2" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" s="1">
+        <v>70.36</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="2" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J40" s="1">
+        <v>39.85</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D41" s="1">
-        <v>4</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41" s="1">
+        <v>155.5</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H42" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I42" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="J42" s="1">
+        <v>90.68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
